--- a/form_reporting_templates/Form-3AA-update.xlsx
+++ b/form_reporting_templates/Form-3AA-update.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66060BCA-3FC5-487E-9DBF-4C47ED923CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77EF077-0AD8-40BC-A041-E0B5032235FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Focal point</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>3AA-update</t>
+  </si>
+  <si>
+    <t>FI</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -736,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1019,6 +1028,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1633,7 +1645,9 @@
       <c r="C25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="99" t="s">
+        <v>36</v>
+      </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -1700,7 +1714,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e8fgmTLCoUQ4CzL3FQZNpVmd/14wyTewb4gdF5HSyFjmfYGj07nZk7cWheeW/SgEyTUE1r3M+ptHnOJisOCssQ==" saltValue="VXB+Si7/9KY5S4eYC3tpKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xUXg2bOH2FvRfrGVGsJs2aEg+GKSH8iwAqJ821pehEI2V5GD+XidzL6jVHfuiSvLrE77eUAWhj+fKwUicUZHOg==" saltValue="4OTOXbKL3KGBIkX0fB8kcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>

--- a/form_reporting_templates/Form-3AA-update.xlsx
+++ b/form_reporting_templates/Form-3AA-update.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77EF077-0AD8-40BC-A041-E0B5032235FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D4B9FD-9801-437C-AFFD-CBBB1B4D5B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Form</t>
   </si>
   <si>
-    <t>Main stratum</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>FI</t>
+  </si>
+  <si>
+    <t>Main elements</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -464,30 +464,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -615,17 +591,6 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -745,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -784,15 +749,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -829,40 +794,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -880,157 +836,175 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1392,24 +1366,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="B2" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
@@ -1417,14 +1391,14 @@
         <v>10</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -1459,15 +1433,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="84"/>
+      <c r="F8" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="80"/>
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,12 +1460,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1508,7 +1482,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1573,7 +1547,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="20"/>
@@ -1581,12 +1555,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="75" t="s">
-        <v>26</v>
+      <c r="F19" s="70" t="s">
+        <v>25</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="20"/>
@@ -1594,7 +1568,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="24"/>
@@ -1643,10 +1617,10 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="99" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -1693,11 +1667,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1754,22 +1728,22 @@
     <col min="2" max="2" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10" style="50" customWidth="1"/>
-    <col min="7" max="7" width="10" style="51" customWidth="1"/>
-    <col min="8" max="8" width="12" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="72"/>
-    <col min="10" max="107" width="9.140625" style="73"/>
-    <col min="108" max="108" width="9.140625" style="74"/>
+    <col min="5" max="5" width="17.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10" style="47" customWidth="1"/>
+    <col min="7" max="7" width="10" style="48" customWidth="1"/>
+    <col min="8" max="8" width="12" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="67"/>
+    <col min="10" max="107" width="9.140625" style="68"/>
+    <col min="108" max="108" width="9.140625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:108" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -1873,686 +1847,686 @@
       <c r="DD1"/>
     </row>
     <row r="2" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="54"/>
-      <c r="BK2" s="54"/>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="54"/>
-      <c r="BR2" s="54"/>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="54"/>
-      <c r="BY2" s="54"/>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
-      <c r="CC2" s="54"/>
-      <c r="CD2" s="54"/>
-      <c r="CE2" s="54"/>
-      <c r="CF2" s="54"/>
-      <c r="CG2" s="54"/>
-      <c r="CH2" s="54"/>
-      <c r="CI2" s="54"/>
-      <c r="CJ2" s="54"/>
-      <c r="CK2" s="54"/>
-      <c r="CL2" s="54"/>
-      <c r="CM2" s="54"/>
-      <c r="CN2" s="54"/>
-      <c r="CO2" s="54"/>
-      <c r="CP2" s="54"/>
-      <c r="CQ2" s="54"/>
-      <c r="CR2" s="54"/>
-      <c r="CS2" s="54"/>
-      <c r="CT2" s="54"/>
-      <c r="CU2" s="54"/>
-      <c r="CV2" s="54"/>
-      <c r="CW2" s="54"/>
-      <c r="CX2" s="54"/>
-      <c r="CY2" s="54"/>
-      <c r="CZ2" s="54"/>
-      <c r="DA2" s="54"/>
-      <c r="DB2" s="54"/>
-      <c r="DC2" s="54"/>
-      <c r="DD2" s="55"/>
+      <c r="B2" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+      <c r="BH2" s="50"/>
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="50"/>
+      <c r="BK2" s="50"/>
+      <c r="BL2" s="50"/>
+      <c r="BM2" s="50"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="50"/>
+      <c r="BP2" s="50"/>
+      <c r="BQ2" s="50"/>
+      <c r="BR2" s="50"/>
+      <c r="BS2" s="50"/>
+      <c r="BT2" s="50"/>
+      <c r="BU2" s="50"/>
+      <c r="BV2" s="50"/>
+      <c r="BW2" s="50"/>
+      <c r="BX2" s="50"/>
+      <c r="BY2" s="50"/>
+      <c r="BZ2" s="50"/>
+      <c r="CA2" s="50"/>
+      <c r="CB2" s="50"/>
+      <c r="CC2" s="50"/>
+      <c r="CD2" s="50"/>
+      <c r="CE2" s="50"/>
+      <c r="CF2" s="50"/>
+      <c r="CG2" s="50"/>
+      <c r="CH2" s="50"/>
+      <c r="CI2" s="50"/>
+      <c r="CJ2" s="50"/>
+      <c r="CK2" s="50"/>
+      <c r="CL2" s="50"/>
+      <c r="CM2" s="50"/>
+      <c r="CN2" s="50"/>
+      <c r="CO2" s="50"/>
+      <c r="CP2" s="50"/>
+      <c r="CQ2" s="50"/>
+      <c r="CR2" s="50"/>
+      <c r="CS2" s="50"/>
+      <c r="CT2" s="50"/>
+      <c r="CU2" s="50"/>
+      <c r="CV2" s="50"/>
+      <c r="CW2" s="50"/>
+      <c r="CX2" s="50"/>
+      <c r="CY2" s="50"/>
+      <c r="CZ2" s="50"/>
+      <c r="DA2" s="50"/>
+      <c r="DB2" s="50"/>
+      <c r="DC2" s="50"/>
+      <c r="DD2" s="51"/>
     </row>
     <row r="3" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="91" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="88"/>
+      <c r="AP3" s="88"/>
+      <c r="AQ3" s="88"/>
+      <c r="AR3" s="88"/>
+      <c r="AS3" s="88"/>
+      <c r="AT3" s="88"/>
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="88"/>
+      <c r="AX3" s="88"/>
+      <c r="AY3" s="88"/>
+      <c r="AZ3" s="88"/>
+      <c r="BA3" s="88"/>
+      <c r="BB3" s="88"/>
+      <c r="BC3" s="88"/>
+      <c r="BD3" s="88"/>
+      <c r="BE3" s="88"/>
+      <c r="BF3" s="88"/>
+      <c r="BG3" s="88"/>
+      <c r="BH3" s="88"/>
+      <c r="BI3" s="88"/>
+      <c r="BJ3" s="88"/>
+      <c r="BK3" s="88"/>
+      <c r="BL3" s="88"/>
+      <c r="BM3" s="88"/>
+      <c r="BN3" s="88"/>
+      <c r="BO3" s="88"/>
+      <c r="BP3" s="88"/>
+      <c r="BQ3" s="88"/>
+      <c r="BR3" s="88"/>
+      <c r="BS3" s="88"/>
+      <c r="BT3" s="88"/>
+      <c r="BU3" s="88"/>
+      <c r="BV3" s="88"/>
+      <c r="BW3" s="88"/>
+      <c r="BX3" s="88"/>
+      <c r="BY3" s="88"/>
+      <c r="BZ3" s="88"/>
+      <c r="CA3" s="88"/>
+      <c r="CB3" s="88"/>
+      <c r="CC3" s="88"/>
+      <c r="CD3" s="88"/>
+      <c r="CE3" s="88"/>
+      <c r="CF3" s="88"/>
+      <c r="CG3" s="88"/>
+      <c r="CH3" s="88"/>
+      <c r="CI3" s="88"/>
+      <c r="CJ3" s="88"/>
+      <c r="CK3" s="88"/>
+      <c r="CL3" s="88"/>
+      <c r="CM3" s="88"/>
+      <c r="CN3" s="88"/>
+      <c r="CO3" s="88"/>
+      <c r="CP3" s="88"/>
+      <c r="CQ3" s="88"/>
+      <c r="CR3" s="88"/>
+      <c r="CS3" s="88"/>
+      <c r="CT3" s="88"/>
+      <c r="CU3" s="88"/>
+      <c r="CV3" s="88"/>
+      <c r="CW3" s="88"/>
+      <c r="CX3" s="88"/>
+      <c r="CY3" s="88"/>
+      <c r="CZ3" s="88"/>
+      <c r="DA3" s="88"/>
+      <c r="DB3" s="88"/>
+      <c r="DC3" s="88"/>
+      <c r="DD3" s="89"/>
+    </row>
+    <row r="4" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
+      <c r="BR4" s="56"/>
+      <c r="BS4" s="56"/>
+      <c r="BT4" s="56"/>
+      <c r="BU4" s="56"/>
+      <c r="BV4" s="56"/>
+      <c r="BW4" s="56"/>
+      <c r="BX4" s="56"/>
+      <c r="BY4" s="56"/>
+      <c r="BZ4" s="56"/>
+      <c r="CA4" s="56"/>
+      <c r="CB4" s="56"/>
+      <c r="CC4" s="56"/>
+      <c r="CD4" s="56"/>
+      <c r="CE4" s="56"/>
+      <c r="CF4" s="56"/>
+      <c r="CG4" s="56"/>
+      <c r="CH4" s="56"/>
+      <c r="CI4" s="56"/>
+      <c r="CJ4" s="56"/>
+      <c r="CK4" s="56"/>
+      <c r="CL4" s="56"/>
+      <c r="CM4" s="56"/>
+      <c r="CN4" s="56"/>
+      <c r="CO4" s="56"/>
+      <c r="CP4" s="56"/>
+      <c r="CQ4" s="56"/>
+      <c r="CR4" s="56"/>
+      <c r="CS4" s="56"/>
+      <c r="CT4" s="56"/>
+      <c r="CU4" s="56"/>
+      <c r="CV4" s="56"/>
+      <c r="CW4" s="56"/>
+      <c r="CX4" s="56"/>
+      <c r="CY4" s="56"/>
+      <c r="CZ4" s="56"/>
+      <c r="DA4" s="56"/>
+      <c r="DB4" s="56"/>
+      <c r="DC4" s="56"/>
+      <c r="DD4" s="57"/>
+    </row>
+    <row r="5" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="59"/>
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="59"/>
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="59"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="59"/>
+      <c r="BR5" s="59"/>
+      <c r="BS5" s="59"/>
+      <c r="BT5" s="59"/>
+      <c r="BU5" s="59"/>
+      <c r="BV5" s="59"/>
+      <c r="BW5" s="59"/>
+      <c r="BX5" s="59"/>
+      <c r="BY5" s="59"/>
+      <c r="BZ5" s="59"/>
+      <c r="CA5" s="59"/>
+      <c r="CB5" s="59"/>
+      <c r="CC5" s="59"/>
+      <c r="CD5" s="59"/>
+      <c r="CE5" s="59"/>
+      <c r="CF5" s="59"/>
+      <c r="CG5" s="59"/>
+      <c r="CH5" s="59"/>
+      <c r="CI5" s="59"/>
+      <c r="CJ5" s="59"/>
+      <c r="CK5" s="59"/>
+      <c r="CL5" s="59"/>
+      <c r="CM5" s="59"/>
+      <c r="CN5" s="59"/>
+      <c r="CO5" s="59"/>
+      <c r="CP5" s="59"/>
+      <c r="CQ5" s="59"/>
+      <c r="CR5" s="59"/>
+      <c r="CS5" s="59"/>
+      <c r="CT5" s="59"/>
+      <c r="CU5" s="59"/>
+      <c r="CV5" s="59"/>
+      <c r="CW5" s="59"/>
+      <c r="CX5" s="59"/>
+      <c r="CY5" s="59"/>
+      <c r="CZ5" s="59"/>
+      <c r="DA5" s="59"/>
+      <c r="DB5" s="59"/>
+      <c r="DC5" s="59"/>
+      <c r="DD5" s="60"/>
+    </row>
+    <row r="6" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="92"/>
-      <c r="AK3" s="92"/>
-      <c r="AL3" s="92"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="92"/>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="92"/>
-      <c r="AQ3" s="92"/>
-      <c r="AR3" s="92"/>
-      <c r="AS3" s="92"/>
-      <c r="AT3" s="92"/>
-      <c r="AU3" s="92"/>
-      <c r="AV3" s="92"/>
-      <c r="AW3" s="92"/>
-      <c r="AX3" s="92"/>
-      <c r="AY3" s="92"/>
-      <c r="AZ3" s="92"/>
-      <c r="BA3" s="92"/>
-      <c r="BB3" s="92"/>
-      <c r="BC3" s="92"/>
-      <c r="BD3" s="92"/>
-      <c r="BE3" s="92"/>
-      <c r="BF3" s="92"/>
-      <c r="BG3" s="92"/>
-      <c r="BH3" s="92"/>
-      <c r="BI3" s="92"/>
-      <c r="BJ3" s="92"/>
-      <c r="BK3" s="92"/>
-      <c r="BL3" s="92"/>
-      <c r="BM3" s="92"/>
-      <c r="BN3" s="92"/>
-      <c r="BO3" s="92"/>
-      <c r="BP3" s="92"/>
-      <c r="BQ3" s="92"/>
-      <c r="BR3" s="92"/>
-      <c r="BS3" s="92"/>
-      <c r="BT3" s="92"/>
-      <c r="BU3" s="92"/>
-      <c r="BV3" s="92"/>
-      <c r="BW3" s="92"/>
-      <c r="BX3" s="92"/>
-      <c r="BY3" s="92"/>
-      <c r="BZ3" s="92"/>
-      <c r="CA3" s="92"/>
-      <c r="CB3" s="92"/>
-      <c r="CC3" s="92"/>
-      <c r="CD3" s="92"/>
-      <c r="CE3" s="92"/>
-      <c r="CF3" s="92"/>
-      <c r="CG3" s="92"/>
-      <c r="CH3" s="92"/>
-      <c r="CI3" s="92"/>
-      <c r="CJ3" s="92"/>
-      <c r="CK3" s="92"/>
-      <c r="CL3" s="92"/>
-      <c r="CM3" s="92"/>
-      <c r="CN3" s="92"/>
-      <c r="CO3" s="92"/>
-      <c r="CP3" s="92"/>
-      <c r="CQ3" s="92"/>
-      <c r="CR3" s="92"/>
-      <c r="CS3" s="92"/>
-      <c r="CT3" s="92"/>
-      <c r="CU3" s="92"/>
-      <c r="CV3" s="92"/>
-      <c r="CW3" s="92"/>
-      <c r="CX3" s="92"/>
-      <c r="CY3" s="92"/>
-      <c r="CZ3" s="92"/>
-      <c r="DA3" s="92"/>
-      <c r="DB3" s="92"/>
-      <c r="DC3" s="92"/>
-      <c r="DD3" s="93"/>
-    </row>
-    <row r="4" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="61"/>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="61"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="61"/>
-      <c r="BL4" s="61"/>
-      <c r="BM4" s="61"/>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="61"/>
-      <c r="BP4" s="61"/>
-      <c r="BQ4" s="61"/>
-      <c r="BR4" s="61"/>
-      <c r="BS4" s="61"/>
-      <c r="BT4" s="61"/>
-      <c r="BU4" s="61"/>
-      <c r="BV4" s="61"/>
-      <c r="BW4" s="61"/>
-      <c r="BX4" s="61"/>
-      <c r="BY4" s="61"/>
-      <c r="BZ4" s="61"/>
-      <c r="CA4" s="61"/>
-      <c r="CB4" s="61"/>
-      <c r="CC4" s="61"/>
-      <c r="CD4" s="61"/>
-      <c r="CE4" s="61"/>
-      <c r="CF4" s="61"/>
-      <c r="CG4" s="61"/>
-      <c r="CH4" s="61"/>
-      <c r="CI4" s="61"/>
-      <c r="CJ4" s="61"/>
-      <c r="CK4" s="61"/>
-      <c r="CL4" s="61"/>
-      <c r="CM4" s="61"/>
-      <c r="CN4" s="61"/>
-      <c r="CO4" s="61"/>
-      <c r="CP4" s="61"/>
-      <c r="CQ4" s="61"/>
-      <c r="CR4" s="61"/>
-      <c r="CS4" s="61"/>
-      <c r="CT4" s="61"/>
-      <c r="CU4" s="61"/>
-      <c r="CV4" s="61"/>
-      <c r="CW4" s="61"/>
-      <c r="CX4" s="61"/>
-      <c r="CY4" s="61"/>
-      <c r="CZ4" s="61"/>
-      <c r="DA4" s="61"/>
-      <c r="DB4" s="61"/>
-      <c r="DC4" s="61"/>
-      <c r="DD4" s="62"/>
-    </row>
-    <row r="5" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="64"/>
-      <c r="AW5" s="64"/>
-      <c r="AX5" s="64"/>
-      <c r="AY5" s="64"/>
-      <c r="AZ5" s="64"/>
-      <c r="BA5" s="64"/>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="64"/>
-      <c r="BD5" s="64"/>
-      <c r="BE5" s="64"/>
-      <c r="BF5" s="64"/>
-      <c r="BG5" s="64"/>
-      <c r="BH5" s="64"/>
-      <c r="BI5" s="64"/>
-      <c r="BJ5" s="64"/>
-      <c r="BK5" s="64"/>
-      <c r="BL5" s="64"/>
-      <c r="BM5" s="64"/>
-      <c r="BN5" s="64"/>
-      <c r="BO5" s="64"/>
-      <c r="BP5" s="64"/>
-      <c r="BQ5" s="64"/>
-      <c r="BR5" s="64"/>
-      <c r="BS5" s="64"/>
-      <c r="BT5" s="64"/>
-      <c r="BU5" s="64"/>
-      <c r="BV5" s="64"/>
-      <c r="BW5" s="64"/>
-      <c r="BX5" s="64"/>
-      <c r="BY5" s="64"/>
-      <c r="BZ5" s="64"/>
-      <c r="CA5" s="64"/>
-      <c r="CB5" s="64"/>
-      <c r="CC5" s="64"/>
-      <c r="CD5" s="64"/>
-      <c r="CE5" s="64"/>
-      <c r="CF5" s="64"/>
-      <c r="CG5" s="64"/>
-      <c r="CH5" s="64"/>
-      <c r="CI5" s="64"/>
-      <c r="CJ5" s="64"/>
-      <c r="CK5" s="64"/>
-      <c r="CL5" s="64"/>
-      <c r="CM5" s="64"/>
-      <c r="CN5" s="64"/>
-      <c r="CO5" s="64"/>
-      <c r="CP5" s="64"/>
-      <c r="CQ5" s="64"/>
-      <c r="CR5" s="64"/>
-      <c r="CS5" s="64"/>
-      <c r="CT5" s="64"/>
-      <c r="CU5" s="64"/>
-      <c r="CV5" s="64"/>
-      <c r="CW5" s="64"/>
-      <c r="CX5" s="64"/>
-      <c r="CY5" s="64"/>
-      <c r="CZ5" s="64"/>
-      <c r="DA5" s="64"/>
-      <c r="DB5" s="64"/>
-      <c r="DC5" s="64"/>
-      <c r="DD5" s="65"/>
-    </row>
-    <row r="6" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="64"/>
-      <c r="AM6" s="64"/>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="64"/>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="64"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64"/>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="64"/>
-      <c r="BP6" s="64"/>
-      <c r="BQ6" s="64"/>
-      <c r="BR6" s="64"/>
-      <c r="BS6" s="64"/>
-      <c r="BT6" s="64"/>
-      <c r="BU6" s="64"/>
-      <c r="BV6" s="64"/>
-      <c r="BW6" s="64"/>
-      <c r="BX6" s="64"/>
-      <c r="BY6" s="64"/>
-      <c r="BZ6" s="64"/>
-      <c r="CA6" s="64"/>
-      <c r="CB6" s="64"/>
-      <c r="CC6" s="64"/>
-      <c r="CD6" s="64"/>
-      <c r="CE6" s="64"/>
-      <c r="CF6" s="64"/>
-      <c r="CG6" s="64"/>
-      <c r="CH6" s="64"/>
-      <c r="CI6" s="64"/>
-      <c r="CJ6" s="64"/>
-      <c r="CK6" s="64"/>
-      <c r="CL6" s="64"/>
-      <c r="CM6" s="64"/>
-      <c r="CN6" s="64"/>
-      <c r="CO6" s="64"/>
-      <c r="CP6" s="64"/>
-      <c r="CQ6" s="64"/>
-      <c r="CR6" s="64"/>
-      <c r="CS6" s="64"/>
-      <c r="CT6" s="64"/>
-      <c r="CU6" s="64"/>
-      <c r="CV6" s="64"/>
-      <c r="CW6" s="64"/>
-      <c r="CX6" s="64"/>
-      <c r="CY6" s="64"/>
-      <c r="CZ6" s="64"/>
-      <c r="DA6" s="64"/>
-      <c r="DB6" s="64"/>
-      <c r="DC6" s="64"/>
-      <c r="DD6" s="65"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="59"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="59"/>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="59"/>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="59"/>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
+      <c r="BF6" s="59"/>
+      <c r="BG6" s="59"/>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="59"/>
+      <c r="BJ6" s="59"/>
+      <c r="BK6" s="59"/>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="59"/>
+      <c r="BN6" s="59"/>
+      <c r="BO6" s="59"/>
+      <c r="BP6" s="59"/>
+      <c r="BQ6" s="59"/>
+      <c r="BR6" s="59"/>
+      <c r="BS6" s="59"/>
+      <c r="BT6" s="59"/>
+      <c r="BU6" s="59"/>
+      <c r="BV6" s="59"/>
+      <c r="BW6" s="59"/>
+      <c r="BX6" s="59"/>
+      <c r="BY6" s="59"/>
+      <c r="BZ6" s="59"/>
+      <c r="CA6" s="59"/>
+      <c r="CB6" s="59"/>
+      <c r="CC6" s="59"/>
+      <c r="CD6" s="59"/>
+      <c r="CE6" s="59"/>
+      <c r="CF6" s="59"/>
+      <c r="CG6" s="59"/>
+      <c r="CH6" s="59"/>
+      <c r="CI6" s="59"/>
+      <c r="CJ6" s="59"/>
+      <c r="CK6" s="59"/>
+      <c r="CL6" s="59"/>
+      <c r="CM6" s="59"/>
+      <c r="CN6" s="59"/>
+      <c r="CO6" s="59"/>
+      <c r="CP6" s="59"/>
+      <c r="CQ6" s="59"/>
+      <c r="CR6" s="59"/>
+      <c r="CS6" s="59"/>
+      <c r="CT6" s="59"/>
+      <c r="CU6" s="59"/>
+      <c r="CV6" s="59"/>
+      <c r="CW6" s="59"/>
+      <c r="CX6" s="59"/>
+      <c r="CY6" s="59"/>
+      <c r="CZ6" s="59"/>
+      <c r="DA6" s="59"/>
+      <c r="DB6" s="59"/>
+      <c r="DC6" s="59"/>
+      <c r="DD6" s="60"/>
     </row>
     <row r="7" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="47" t="s">
+      <c r="F7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="G7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="H7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
-      <c r="BQ7" s="67"/>
-      <c r="BR7" s="67"/>
-      <c r="BS7" s="67"/>
-      <c r="BT7" s="67"/>
-      <c r="BU7" s="67"/>
-      <c r="BV7" s="67"/>
-      <c r="BW7" s="67"/>
-      <c r="BX7" s="67"/>
-      <c r="BY7" s="67"/>
-      <c r="BZ7" s="67"/>
-      <c r="CA7" s="67"/>
-      <c r="CB7" s="67"/>
-      <c r="CC7" s="67"/>
-      <c r="CD7" s="67"/>
-      <c r="CE7" s="67"/>
-      <c r="CF7" s="67"/>
-      <c r="CG7" s="67"/>
-      <c r="CH7" s="67"/>
-      <c r="CI7" s="67"/>
-      <c r="CJ7" s="67"/>
-      <c r="CK7" s="67"/>
-      <c r="CL7" s="67"/>
-      <c r="CM7" s="67"/>
-      <c r="CN7" s="67"/>
-      <c r="CO7" s="67"/>
-      <c r="CP7" s="67"/>
-      <c r="CQ7" s="67"/>
-      <c r="CR7" s="67"/>
-      <c r="CS7" s="67"/>
-      <c r="CT7" s="67"/>
-      <c r="CU7" s="67"/>
-      <c r="CV7" s="67"/>
-      <c r="CW7" s="67"/>
-      <c r="CX7" s="67"/>
-      <c r="CY7" s="67"/>
-      <c r="CZ7" s="67"/>
-      <c r="DA7" s="67"/>
-      <c r="DB7" s="67"/>
-      <c r="DC7" s="67"/>
-      <c r="DD7" s="68"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="62"/>
+      <c r="BA7" s="62"/>
+      <c r="BB7" s="62"/>
+      <c r="BC7" s="62"/>
+      <c r="BD7" s="62"/>
+      <c r="BE7" s="62"/>
+      <c r="BF7" s="62"/>
+      <c r="BG7" s="62"/>
+      <c r="BH7" s="62"/>
+      <c r="BI7" s="62"/>
+      <c r="BJ7" s="62"/>
+      <c r="BK7" s="62"/>
+      <c r="BL7" s="62"/>
+      <c r="BM7" s="62"/>
+      <c r="BN7" s="62"/>
+      <c r="BO7" s="62"/>
+      <c r="BP7" s="62"/>
+      <c r="BQ7" s="62"/>
+      <c r="BR7" s="62"/>
+      <c r="BS7" s="62"/>
+      <c r="BT7" s="62"/>
+      <c r="BU7" s="62"/>
+      <c r="BV7" s="62"/>
+      <c r="BW7" s="62"/>
+      <c r="BX7" s="62"/>
+      <c r="BY7" s="62"/>
+      <c r="BZ7" s="62"/>
+      <c r="CA7" s="62"/>
+      <c r="CB7" s="62"/>
+      <c r="CC7" s="62"/>
+      <c r="CD7" s="62"/>
+      <c r="CE7" s="62"/>
+      <c r="CF7" s="62"/>
+      <c r="CG7" s="62"/>
+      <c r="CH7" s="62"/>
+      <c r="CI7" s="62"/>
+      <c r="CJ7" s="62"/>
+      <c r="CK7" s="62"/>
+      <c r="CL7" s="62"/>
+      <c r="CM7" s="62"/>
+      <c r="CN7" s="62"/>
+      <c r="CO7" s="62"/>
+      <c r="CP7" s="62"/>
+      <c r="CQ7" s="62"/>
+      <c r="CR7" s="62"/>
+      <c r="CS7" s="62"/>
+      <c r="CT7" s="62"/>
+      <c r="CU7" s="62"/>
+      <c r="CV7" s="62"/>
+      <c r="CW7" s="62"/>
+      <c r="CX7" s="62"/>
+      <c r="CY7" s="62"/>
+      <c r="CZ7" s="62"/>
+      <c r="DA7" s="62"/>
+      <c r="DB7" s="62"/>
+      <c r="DC7" s="62"/>
+      <c r="DD7" s="63"/>
     </row>
     <row r="8" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -2561,107 +2535,107 @@
       <c r="E8" s="38"/>
       <c r="F8" s="40"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="70"/>
-      <c r="AO8" s="70"/>
-      <c r="AP8" s="70"/>
-      <c r="AQ8" s="70"/>
-      <c r="AR8" s="70"/>
-      <c r="AS8" s="70"/>
-      <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
-      <c r="BC8" s="70"/>
-      <c r="BD8" s="70"/>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="70"/>
-      <c r="BG8" s="70"/>
-      <c r="BH8" s="70"/>
-      <c r="BI8" s="70"/>
-      <c r="BJ8" s="70"/>
-      <c r="BK8" s="70"/>
-      <c r="BL8" s="70"/>
-      <c r="BM8" s="70"/>
-      <c r="BN8" s="70"/>
-      <c r="BO8" s="70"/>
-      <c r="BP8" s="70"/>
-      <c r="BQ8" s="70"/>
-      <c r="BR8" s="70"/>
-      <c r="BS8" s="70"/>
-      <c r="BT8" s="70"/>
-      <c r="BU8" s="70"/>
-      <c r="BV8" s="70"/>
-      <c r="BW8" s="70"/>
-      <c r="BX8" s="70"/>
-      <c r="BY8" s="70"/>
-      <c r="BZ8" s="70"/>
-      <c r="CA8" s="70"/>
-      <c r="CB8" s="70"/>
-      <c r="CC8" s="70"/>
-      <c r="CD8" s="70"/>
-      <c r="CE8" s="70"/>
-      <c r="CF8" s="70"/>
-      <c r="CG8" s="70"/>
-      <c r="CH8" s="70"/>
-      <c r="CI8" s="70"/>
-      <c r="CJ8" s="70"/>
-      <c r="CK8" s="70"/>
-      <c r="CL8" s="70"/>
-      <c r="CM8" s="70"/>
-      <c r="CN8" s="70"/>
-      <c r="CO8" s="70"/>
-      <c r="CP8" s="70"/>
-      <c r="CQ8" s="70"/>
-      <c r="CR8" s="70"/>
-      <c r="CS8" s="70"/>
-      <c r="CT8" s="70"/>
-      <c r="CU8" s="70"/>
-      <c r="CV8" s="70"/>
-      <c r="CW8" s="70"/>
-      <c r="CX8" s="70"/>
-      <c r="CY8" s="70"/>
-      <c r="CZ8" s="70"/>
-      <c r="DA8" s="70"/>
-      <c r="DB8" s="70"/>
-      <c r="DC8" s="70"/>
-      <c r="DD8" s="71"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="65"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="65"/>
+      <c r="AZ8" s="65"/>
+      <c r="BA8" s="65"/>
+      <c r="BB8" s="65"/>
+      <c r="BC8" s="65"/>
+      <c r="BD8" s="65"/>
+      <c r="BE8" s="65"/>
+      <c r="BF8" s="65"/>
+      <c r="BG8" s="65"/>
+      <c r="BH8" s="65"/>
+      <c r="BI8" s="65"/>
+      <c r="BJ8" s="65"/>
+      <c r="BK8" s="65"/>
+      <c r="BL8" s="65"/>
+      <c r="BM8" s="65"/>
+      <c r="BN8" s="65"/>
+      <c r="BO8" s="65"/>
+      <c r="BP8" s="65"/>
+      <c r="BQ8" s="65"/>
+      <c r="BR8" s="65"/>
+      <c r="BS8" s="65"/>
+      <c r="BT8" s="65"/>
+      <c r="BU8" s="65"/>
+      <c r="BV8" s="65"/>
+      <c r="BW8" s="65"/>
+      <c r="BX8" s="65"/>
+      <c r="BY8" s="65"/>
+      <c r="BZ8" s="65"/>
+      <c r="CA8" s="65"/>
+      <c r="CB8" s="65"/>
+      <c r="CC8" s="65"/>
+      <c r="CD8" s="65"/>
+      <c r="CE8" s="65"/>
+      <c r="CF8" s="65"/>
+      <c r="CG8" s="65"/>
+      <c r="CH8" s="65"/>
+      <c r="CI8" s="65"/>
+      <c r="CJ8" s="65"/>
+      <c r="CK8" s="65"/>
+      <c r="CL8" s="65"/>
+      <c r="CM8" s="65"/>
+      <c r="CN8" s="65"/>
+      <c r="CO8" s="65"/>
+      <c r="CP8" s="65"/>
+      <c r="CQ8" s="65"/>
+      <c r="CR8" s="65"/>
+      <c r="CS8" s="65"/>
+      <c r="CT8" s="65"/>
+      <c r="CU8" s="65"/>
+      <c r="CV8" s="65"/>
+      <c r="CW8" s="65"/>
+      <c r="CX8" s="65"/>
+      <c r="CY8" s="65"/>
+      <c r="CZ8" s="65"/>
+      <c r="DA8" s="65"/>
+      <c r="DB8" s="65"/>
+      <c r="DC8" s="65"/>
+      <c r="DD8" s="66"/>
     </row>
     <row r="9" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
@@ -3056,12 +3030,12 @@
       <c r="G57" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uPodclcUZ3mTHXNJFrNv5UeCyq1mkIOiJg9kBXWyFkUE9vAY+liw52pu9BayEjaAvodeM3mNHE7jlUnodPIKcg==" saltValue="OJ4eVIGD+ICJgTlZ7js1ag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lPeAwG9JnC9fcXPK4eOEkiGG0wdy61D4vfwA0x9TjACwr2DCCcFoXH1NNRmVS3KxIyAm0avMAoQlR6bf0hTfjA==" saltValue="h83zh/kxXfEOkBm4e2NR6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="I3:DD3"/>
     <mergeCell ref="B2:G3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B4:D6"/>
+    <mergeCell ref="E4:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:G1048576">
     <cfRule type="expression" dxfId="1" priority="3">

--- a/form_reporting_templates/Form-3AA-update.xlsx
+++ b/form_reporting_templates/Form-3AA-update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D4B9FD-9801-437C-AFFD-CBBB1B4D5B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232AFDFD-D389-4D4F-B327-6E971ED7F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -155,9 +155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -718,10 +718,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -925,6 +921,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -973,12 +975,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,7 +987,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,6 +1001,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1052,9 +1052,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1092,7 +1092,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1198,7 +1198,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1340,7 +1340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1366,329 +1366,329 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="20"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="80" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="80" t="s">
+      <c r="D8" s="81"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="20"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="20"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="20"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="22" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="70" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="20"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="29" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="20"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="20"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="28" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="20"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xUXg2bOH2FvRfrGVGsJs2aEg+GKSH8iwAqJ821pehEI2V5GD+XidzL6jVHfuiSvLrE77eUAWhj+fKwUicUZHOg==" saltValue="4OTOXbKL3KGBIkX0fB8kcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ev6AqTyz4d54YxLTHgn0kUg8jDIqW3JSnALjqG6B3qpnm9OcsxFqvtKr3FUTt2rxN3olduvQvRm7MlDXAUpuJg==" saltValue="lUSibiF8hNFJzk8fmW6Ayw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1725,25 +1725,25 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10" style="47" customWidth="1"/>
-    <col min="7" max="7" width="10" style="48" customWidth="1"/>
-    <col min="8" max="8" width="12" style="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="67"/>
-    <col min="10" max="107" width="9.140625" style="68"/>
-    <col min="108" max="108" width="9.140625" style="69"/>
+    <col min="2" max="2" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="10" style="46" customWidth="1"/>
+    <col min="7" max="7" width="10" style="47" customWidth="1"/>
+    <col min="8" max="8" width="12" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="66"/>
+    <col min="10" max="107" width="9.140625" style="67"/>
+    <col min="108" max="108" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:108" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="6"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -1847,1187 +1847,1187 @@
       <c r="DD1"/>
     </row>
     <row r="2" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
-      <c r="BJ2" s="50"/>
-      <c r="BK2" s="50"/>
-      <c r="BL2" s="50"/>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="50"/>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="50"/>
-      <c r="BV2" s="50"/>
-      <c r="BW2" s="50"/>
-      <c r="BX2" s="50"/>
-      <c r="BY2" s="50"/>
-      <c r="BZ2" s="50"/>
-      <c r="CA2" s="50"/>
-      <c r="CB2" s="50"/>
-      <c r="CC2" s="50"/>
-      <c r="CD2" s="50"/>
-      <c r="CE2" s="50"/>
-      <c r="CF2" s="50"/>
-      <c r="CG2" s="50"/>
-      <c r="CH2" s="50"/>
-      <c r="CI2" s="50"/>
-      <c r="CJ2" s="50"/>
-      <c r="CK2" s="50"/>
-      <c r="CL2" s="50"/>
-      <c r="CM2" s="50"/>
-      <c r="CN2" s="50"/>
-      <c r="CO2" s="50"/>
-      <c r="CP2" s="50"/>
-      <c r="CQ2" s="50"/>
-      <c r="CR2" s="50"/>
-      <c r="CS2" s="50"/>
-      <c r="CT2" s="50"/>
-      <c r="CU2" s="50"/>
-      <c r="CV2" s="50"/>
-      <c r="CW2" s="50"/>
-      <c r="CX2" s="50"/>
-      <c r="CY2" s="50"/>
-      <c r="CZ2" s="50"/>
-      <c r="DA2" s="50"/>
-      <c r="DB2" s="50"/>
-      <c r="DC2" s="50"/>
-      <c r="DD2" s="51"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
+      <c r="BX2" s="49"/>
+      <c r="BY2" s="49"/>
+      <c r="BZ2" s="49"/>
+      <c r="CA2" s="49"/>
+      <c r="CB2" s="49"/>
+      <c r="CC2" s="49"/>
+      <c r="CD2" s="49"/>
+      <c r="CE2" s="49"/>
+      <c r="CF2" s="49"/>
+      <c r="CG2" s="49"/>
+      <c r="CH2" s="49"/>
+      <c r="CI2" s="49"/>
+      <c r="CJ2" s="49"/>
+      <c r="CK2" s="49"/>
+      <c r="CL2" s="49"/>
+      <c r="CM2" s="49"/>
+      <c r="CN2" s="49"/>
+      <c r="CO2" s="49"/>
+      <c r="CP2" s="49"/>
+      <c r="CQ2" s="49"/>
+      <c r="CR2" s="49"/>
+      <c r="CS2" s="49"/>
+      <c r="CT2" s="49"/>
+      <c r="CU2" s="49"/>
+      <c r="CV2" s="49"/>
+      <c r="CW2" s="49"/>
+      <c r="CX2" s="49"/>
+      <c r="CY2" s="49"/>
+      <c r="CZ2" s="49"/>
+      <c r="DA2" s="49"/>
+      <c r="DB2" s="49"/>
+      <c r="DC2" s="49"/>
+      <c r="DD2" s="50"/>
     </row>
     <row r="3" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="87" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="88"/>
-      <c r="AR3" s="88"/>
-      <c r="AS3" s="88"/>
-      <c r="AT3" s="88"/>
-      <c r="AU3" s="88"/>
-      <c r="AV3" s="88"/>
-      <c r="AW3" s="88"/>
-      <c r="AX3" s="88"/>
-      <c r="AY3" s="88"/>
-      <c r="AZ3" s="88"/>
-      <c r="BA3" s="88"/>
-      <c r="BB3" s="88"/>
-      <c r="BC3" s="88"/>
-      <c r="BD3" s="88"/>
-      <c r="BE3" s="88"/>
-      <c r="BF3" s="88"/>
-      <c r="BG3" s="88"/>
-      <c r="BH3" s="88"/>
-      <c r="BI3" s="88"/>
-      <c r="BJ3" s="88"/>
-      <c r="BK3" s="88"/>
-      <c r="BL3" s="88"/>
-      <c r="BM3" s="88"/>
-      <c r="BN3" s="88"/>
-      <c r="BO3" s="88"/>
-      <c r="BP3" s="88"/>
-      <c r="BQ3" s="88"/>
-      <c r="BR3" s="88"/>
-      <c r="BS3" s="88"/>
-      <c r="BT3" s="88"/>
-      <c r="BU3" s="88"/>
-      <c r="BV3" s="88"/>
-      <c r="BW3" s="88"/>
-      <c r="BX3" s="88"/>
-      <c r="BY3" s="88"/>
-      <c r="BZ3" s="88"/>
-      <c r="CA3" s="88"/>
-      <c r="CB3" s="88"/>
-      <c r="CC3" s="88"/>
-      <c r="CD3" s="88"/>
-      <c r="CE3" s="88"/>
-      <c r="CF3" s="88"/>
-      <c r="CG3" s="88"/>
-      <c r="CH3" s="88"/>
-      <c r="CI3" s="88"/>
-      <c r="CJ3" s="88"/>
-      <c r="CK3" s="88"/>
-      <c r="CL3" s="88"/>
-      <c r="CM3" s="88"/>
-      <c r="CN3" s="88"/>
-      <c r="CO3" s="88"/>
-      <c r="CP3" s="88"/>
-      <c r="CQ3" s="88"/>
-      <c r="CR3" s="88"/>
-      <c r="CS3" s="88"/>
-      <c r="CT3" s="88"/>
-      <c r="CU3" s="88"/>
-      <c r="CV3" s="88"/>
-      <c r="CW3" s="88"/>
-      <c r="CX3" s="88"/>
-      <c r="CY3" s="88"/>
-      <c r="CZ3" s="88"/>
-      <c r="DA3" s="88"/>
-      <c r="DB3" s="88"/>
-      <c r="DC3" s="88"/>
-      <c r="DD3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="89"/>
+      <c r="AO3" s="89"/>
+      <c r="AP3" s="89"/>
+      <c r="AQ3" s="89"/>
+      <c r="AR3" s="89"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="89"/>
+      <c r="AU3" s="89"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="89"/>
+      <c r="AZ3" s="89"/>
+      <c r="BA3" s="89"/>
+      <c r="BB3" s="89"/>
+      <c r="BC3" s="89"/>
+      <c r="BD3" s="89"/>
+      <c r="BE3" s="89"/>
+      <c r="BF3" s="89"/>
+      <c r="BG3" s="89"/>
+      <c r="BH3" s="89"/>
+      <c r="BI3" s="89"/>
+      <c r="BJ3" s="89"/>
+      <c r="BK3" s="89"/>
+      <c r="BL3" s="89"/>
+      <c r="BM3" s="89"/>
+      <c r="BN3" s="89"/>
+      <c r="BO3" s="89"/>
+      <c r="BP3" s="89"/>
+      <c r="BQ3" s="89"/>
+      <c r="BR3" s="89"/>
+      <c r="BS3" s="89"/>
+      <c r="BT3" s="89"/>
+      <c r="BU3" s="89"/>
+      <c r="BV3" s="89"/>
+      <c r="BW3" s="89"/>
+      <c r="BX3" s="89"/>
+      <c r="BY3" s="89"/>
+      <c r="BZ3" s="89"/>
+      <c r="CA3" s="89"/>
+      <c r="CB3" s="89"/>
+      <c r="CC3" s="89"/>
+      <c r="CD3" s="89"/>
+      <c r="CE3" s="89"/>
+      <c r="CF3" s="89"/>
+      <c r="CG3" s="89"/>
+      <c r="CH3" s="89"/>
+      <c r="CI3" s="89"/>
+      <c r="CJ3" s="89"/>
+      <c r="CK3" s="89"/>
+      <c r="CL3" s="89"/>
+      <c r="CM3" s="89"/>
+      <c r="CN3" s="89"/>
+      <c r="CO3" s="89"/>
+      <c r="CP3" s="89"/>
+      <c r="CQ3" s="89"/>
+      <c r="CR3" s="89"/>
+      <c r="CS3" s="89"/>
+      <c r="CT3" s="89"/>
+      <c r="CU3" s="89"/>
+      <c r="CV3" s="89"/>
+      <c r="CW3" s="89"/>
+      <c r="CX3" s="89"/>
+      <c r="CY3" s="89"/>
+      <c r="CZ3" s="89"/>
+      <c r="DA3" s="89"/>
+      <c r="DB3" s="89"/>
+      <c r="DC3" s="89"/>
+      <c r="DD3" s="90"/>
     </row>
     <row r="4" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="94" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="72" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="56"/>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="56"/>
-      <c r="BH4" s="56"/>
-      <c r="BI4" s="56"/>
-      <c r="BJ4" s="56"/>
-      <c r="BK4" s="56"/>
-      <c r="BL4" s="56"/>
-      <c r="BM4" s="56"/>
-      <c r="BN4" s="56"/>
-      <c r="BO4" s="56"/>
-      <c r="BP4" s="56"/>
-      <c r="BQ4" s="56"/>
-      <c r="BR4" s="56"/>
-      <c r="BS4" s="56"/>
-      <c r="BT4" s="56"/>
-      <c r="BU4" s="56"/>
-      <c r="BV4" s="56"/>
-      <c r="BW4" s="56"/>
-      <c r="BX4" s="56"/>
-      <c r="BY4" s="56"/>
-      <c r="BZ4" s="56"/>
-      <c r="CA4" s="56"/>
-      <c r="CB4" s="56"/>
-      <c r="CC4" s="56"/>
-      <c r="CD4" s="56"/>
-      <c r="CE4" s="56"/>
-      <c r="CF4" s="56"/>
-      <c r="CG4" s="56"/>
-      <c r="CH4" s="56"/>
-      <c r="CI4" s="56"/>
-      <c r="CJ4" s="56"/>
-      <c r="CK4" s="56"/>
-      <c r="CL4" s="56"/>
-      <c r="CM4" s="56"/>
-      <c r="CN4" s="56"/>
-      <c r="CO4" s="56"/>
-      <c r="CP4" s="56"/>
-      <c r="CQ4" s="56"/>
-      <c r="CR4" s="56"/>
-      <c r="CS4" s="56"/>
-      <c r="CT4" s="56"/>
-      <c r="CU4" s="56"/>
-      <c r="CV4" s="56"/>
-      <c r="CW4" s="56"/>
-      <c r="CX4" s="56"/>
-      <c r="CY4" s="56"/>
-      <c r="CZ4" s="56"/>
-      <c r="DA4" s="56"/>
-      <c r="DB4" s="56"/>
-      <c r="DC4" s="56"/>
-      <c r="DD4" s="57"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="55"/>
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55"/>
+      <c r="BQ4" s="55"/>
+      <c r="BR4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="55"/>
+      <c r="BU4" s="55"/>
+      <c r="BV4" s="55"/>
+      <c r="BW4" s="55"/>
+      <c r="BX4" s="55"/>
+      <c r="BY4" s="55"/>
+      <c r="BZ4" s="55"/>
+      <c r="CA4" s="55"/>
+      <c r="CB4" s="55"/>
+      <c r="CC4" s="55"/>
+      <c r="CD4" s="55"/>
+      <c r="CE4" s="55"/>
+      <c r="CF4" s="55"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="55"/>
+      <c r="CI4" s="55"/>
+      <c r="CJ4" s="55"/>
+      <c r="CK4" s="55"/>
+      <c r="CL4" s="55"/>
+      <c r="CM4" s="55"/>
+      <c r="CN4" s="55"/>
+      <c r="CO4" s="55"/>
+      <c r="CP4" s="55"/>
+      <c r="CQ4" s="55"/>
+      <c r="CR4" s="55"/>
+      <c r="CS4" s="55"/>
+      <c r="CT4" s="55"/>
+      <c r="CU4" s="55"/>
+      <c r="CV4" s="55"/>
+      <c r="CW4" s="55"/>
+      <c r="CX4" s="55"/>
+      <c r="CY4" s="55"/>
+      <c r="CZ4" s="55"/>
+      <c r="DA4" s="55"/>
+      <c r="DB4" s="55"/>
+      <c r="DC4" s="55"/>
+      <c r="DD4" s="56"/>
     </row>
     <row r="5" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="73" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="59"/>
-      <c r="BA5" s="59"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="59"/>
-      <c r="BR5" s="59"/>
-      <c r="BS5" s="59"/>
-      <c r="BT5" s="59"/>
-      <c r="BU5" s="59"/>
-      <c r="BV5" s="59"/>
-      <c r="BW5" s="59"/>
-      <c r="BX5" s="59"/>
-      <c r="BY5" s="59"/>
-      <c r="BZ5" s="59"/>
-      <c r="CA5" s="59"/>
-      <c r="CB5" s="59"/>
-      <c r="CC5" s="59"/>
-      <c r="CD5" s="59"/>
-      <c r="CE5" s="59"/>
-      <c r="CF5" s="59"/>
-      <c r="CG5" s="59"/>
-      <c r="CH5" s="59"/>
-      <c r="CI5" s="59"/>
-      <c r="CJ5" s="59"/>
-      <c r="CK5" s="59"/>
-      <c r="CL5" s="59"/>
-      <c r="CM5" s="59"/>
-      <c r="CN5" s="59"/>
-      <c r="CO5" s="59"/>
-      <c r="CP5" s="59"/>
-      <c r="CQ5" s="59"/>
-      <c r="CR5" s="59"/>
-      <c r="CS5" s="59"/>
-      <c r="CT5" s="59"/>
-      <c r="CU5" s="59"/>
-      <c r="CV5" s="59"/>
-      <c r="CW5" s="59"/>
-      <c r="CX5" s="59"/>
-      <c r="CY5" s="59"/>
-      <c r="CZ5" s="59"/>
-      <c r="DA5" s="59"/>
-      <c r="DB5" s="59"/>
-      <c r="DC5" s="59"/>
-      <c r="DD5" s="60"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="58"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="58"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
+      <c r="BE5" s="58"/>
+      <c r="BF5" s="58"/>
+      <c r="BG5" s="58"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="58"/>
+      <c r="BK5" s="58"/>
+      <c r="BL5" s="58"/>
+      <c r="BM5" s="58"/>
+      <c r="BN5" s="58"/>
+      <c r="BO5" s="58"/>
+      <c r="BP5" s="58"/>
+      <c r="BQ5" s="58"/>
+      <c r="BR5" s="58"/>
+      <c r="BS5" s="58"/>
+      <c r="BT5" s="58"/>
+      <c r="BU5" s="58"/>
+      <c r="BV5" s="58"/>
+      <c r="BW5" s="58"/>
+      <c r="BX5" s="58"/>
+      <c r="BY5" s="58"/>
+      <c r="BZ5" s="58"/>
+      <c r="CA5" s="58"/>
+      <c r="CB5" s="58"/>
+      <c r="CC5" s="58"/>
+      <c r="CD5" s="58"/>
+      <c r="CE5" s="58"/>
+      <c r="CF5" s="58"/>
+      <c r="CG5" s="58"/>
+      <c r="CH5" s="58"/>
+      <c r="CI5" s="58"/>
+      <c r="CJ5" s="58"/>
+      <c r="CK5" s="58"/>
+      <c r="CL5" s="58"/>
+      <c r="CM5" s="58"/>
+      <c r="CN5" s="58"/>
+      <c r="CO5" s="58"/>
+      <c r="CP5" s="58"/>
+      <c r="CQ5" s="58"/>
+      <c r="CR5" s="58"/>
+      <c r="CS5" s="58"/>
+      <c r="CT5" s="58"/>
+      <c r="CU5" s="58"/>
+      <c r="CV5" s="58"/>
+      <c r="CW5" s="58"/>
+      <c r="CX5" s="58"/>
+      <c r="CY5" s="58"/>
+      <c r="CZ5" s="58"/>
+      <c r="DA5" s="58"/>
+      <c r="DB5" s="58"/>
+      <c r="DC5" s="58"/>
+      <c r="DD5" s="59"/>
     </row>
     <row r="6" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="71" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="59"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="59"/>
-      <c r="AV6" s="59"/>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="59"/>
-      <c r="AY6" s="59"/>
-      <c r="AZ6" s="59"/>
-      <c r="BA6" s="59"/>
-      <c r="BB6" s="59"/>
-      <c r="BC6" s="59"/>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="59"/>
-      <c r="BF6" s="59"/>
-      <c r="BG6" s="59"/>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="59"/>
-      <c r="BJ6" s="59"/>
-      <c r="BK6" s="59"/>
-      <c r="BL6" s="59"/>
-      <c r="BM6" s="59"/>
-      <c r="BN6" s="59"/>
-      <c r="BO6" s="59"/>
-      <c r="BP6" s="59"/>
-      <c r="BQ6" s="59"/>
-      <c r="BR6" s="59"/>
-      <c r="BS6" s="59"/>
-      <c r="BT6" s="59"/>
-      <c r="BU6" s="59"/>
-      <c r="BV6" s="59"/>
-      <c r="BW6" s="59"/>
-      <c r="BX6" s="59"/>
-      <c r="BY6" s="59"/>
-      <c r="BZ6" s="59"/>
-      <c r="CA6" s="59"/>
-      <c r="CB6" s="59"/>
-      <c r="CC6" s="59"/>
-      <c r="CD6" s="59"/>
-      <c r="CE6" s="59"/>
-      <c r="CF6" s="59"/>
-      <c r="CG6" s="59"/>
-      <c r="CH6" s="59"/>
-      <c r="CI6" s="59"/>
-      <c r="CJ6" s="59"/>
-      <c r="CK6" s="59"/>
-      <c r="CL6" s="59"/>
-      <c r="CM6" s="59"/>
-      <c r="CN6" s="59"/>
-      <c r="CO6" s="59"/>
-      <c r="CP6" s="59"/>
-      <c r="CQ6" s="59"/>
-      <c r="CR6" s="59"/>
-      <c r="CS6" s="59"/>
-      <c r="CT6" s="59"/>
-      <c r="CU6" s="59"/>
-      <c r="CV6" s="59"/>
-      <c r="CW6" s="59"/>
-      <c r="CX6" s="59"/>
-      <c r="CY6" s="59"/>
-      <c r="CZ6" s="59"/>
-      <c r="DA6" s="59"/>
-      <c r="DB6" s="59"/>
-      <c r="DC6" s="59"/>
-      <c r="DD6" s="60"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="58"/>
+      <c r="AS6" s="58"/>
+      <c r="AT6" s="58"/>
+      <c r="AU6" s="58"/>
+      <c r="AV6" s="58"/>
+      <c r="AW6" s="58"/>
+      <c r="AX6" s="58"/>
+      <c r="AY6" s="58"/>
+      <c r="AZ6" s="58"/>
+      <c r="BA6" s="58"/>
+      <c r="BB6" s="58"/>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="58"/>
+      <c r="BE6" s="58"/>
+      <c r="BF6" s="58"/>
+      <c r="BG6" s="58"/>
+      <c r="BH6" s="58"/>
+      <c r="BI6" s="58"/>
+      <c r="BJ6" s="58"/>
+      <c r="BK6" s="58"/>
+      <c r="BL6" s="58"/>
+      <c r="BM6" s="58"/>
+      <c r="BN6" s="58"/>
+      <c r="BO6" s="58"/>
+      <c r="BP6" s="58"/>
+      <c r="BQ6" s="58"/>
+      <c r="BR6" s="58"/>
+      <c r="BS6" s="58"/>
+      <c r="BT6" s="58"/>
+      <c r="BU6" s="58"/>
+      <c r="BV6" s="58"/>
+      <c r="BW6" s="58"/>
+      <c r="BX6" s="58"/>
+      <c r="BY6" s="58"/>
+      <c r="BZ6" s="58"/>
+      <c r="CA6" s="58"/>
+      <c r="CB6" s="58"/>
+      <c r="CC6" s="58"/>
+      <c r="CD6" s="58"/>
+      <c r="CE6" s="58"/>
+      <c r="CF6" s="58"/>
+      <c r="CG6" s="58"/>
+      <c r="CH6" s="58"/>
+      <c r="CI6" s="58"/>
+      <c r="CJ6" s="58"/>
+      <c r="CK6" s="58"/>
+      <c r="CL6" s="58"/>
+      <c r="CM6" s="58"/>
+      <c r="CN6" s="58"/>
+      <c r="CO6" s="58"/>
+      <c r="CP6" s="58"/>
+      <c r="CQ6" s="58"/>
+      <c r="CR6" s="58"/>
+      <c r="CS6" s="58"/>
+      <c r="CT6" s="58"/>
+      <c r="CU6" s="58"/>
+      <c r="CV6" s="58"/>
+      <c r="CW6" s="58"/>
+      <c r="CX6" s="58"/>
+      <c r="CY6" s="58"/>
+      <c r="CZ6" s="58"/>
+      <c r="DA6" s="58"/>
+      <c r="DB6" s="58"/>
+      <c r="DC6" s="58"/>
+      <c r="DD6" s="59"/>
     </row>
     <row r="7" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="62"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="62"/>
-      <c r="BA7" s="62"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="62"/>
-      <c r="BE7" s="62"/>
-      <c r="BF7" s="62"/>
-      <c r="BG7" s="62"/>
-      <c r="BH7" s="62"/>
-      <c r="BI7" s="62"/>
-      <c r="BJ7" s="62"/>
-      <c r="BK7" s="62"/>
-      <c r="BL7" s="62"/>
-      <c r="BM7" s="62"/>
-      <c r="BN7" s="62"/>
-      <c r="BO7" s="62"/>
-      <c r="BP7" s="62"/>
-      <c r="BQ7" s="62"/>
-      <c r="BR7" s="62"/>
-      <c r="BS7" s="62"/>
-      <c r="BT7" s="62"/>
-      <c r="BU7" s="62"/>
-      <c r="BV7" s="62"/>
-      <c r="BW7" s="62"/>
-      <c r="BX7" s="62"/>
-      <c r="BY7" s="62"/>
-      <c r="BZ7" s="62"/>
-      <c r="CA7" s="62"/>
-      <c r="CB7" s="62"/>
-      <c r="CC7" s="62"/>
-      <c r="CD7" s="62"/>
-      <c r="CE7" s="62"/>
-      <c r="CF7" s="62"/>
-      <c r="CG7" s="62"/>
-      <c r="CH7" s="62"/>
-      <c r="CI7" s="62"/>
-      <c r="CJ7" s="62"/>
-      <c r="CK7" s="62"/>
-      <c r="CL7" s="62"/>
-      <c r="CM7" s="62"/>
-      <c r="CN7" s="62"/>
-      <c r="CO7" s="62"/>
-      <c r="CP7" s="62"/>
-      <c r="CQ7" s="62"/>
-      <c r="CR7" s="62"/>
-      <c r="CS7" s="62"/>
-      <c r="CT7" s="62"/>
-      <c r="CU7" s="62"/>
-      <c r="CV7" s="62"/>
-      <c r="CW7" s="62"/>
-      <c r="CX7" s="62"/>
-      <c r="CY7" s="62"/>
-      <c r="CZ7" s="62"/>
-      <c r="DA7" s="62"/>
-      <c r="DB7" s="62"/>
-      <c r="DC7" s="62"/>
-      <c r="DD7" s="63"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="61"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="61"/>
+      <c r="BO7" s="61"/>
+      <c r="BP7" s="61"/>
+      <c r="BQ7" s="61"/>
+      <c r="BR7" s="61"/>
+      <c r="BS7" s="61"/>
+      <c r="BT7" s="61"/>
+      <c r="BU7" s="61"/>
+      <c r="BV7" s="61"/>
+      <c r="BW7" s="61"/>
+      <c r="BX7" s="61"/>
+      <c r="BY7" s="61"/>
+      <c r="BZ7" s="61"/>
+      <c r="CA7" s="61"/>
+      <c r="CB7" s="61"/>
+      <c r="CC7" s="61"/>
+      <c r="CD7" s="61"/>
+      <c r="CE7" s="61"/>
+      <c r="CF7" s="61"/>
+      <c r="CG7" s="61"/>
+      <c r="CH7" s="61"/>
+      <c r="CI7" s="61"/>
+      <c r="CJ7" s="61"/>
+      <c r="CK7" s="61"/>
+      <c r="CL7" s="61"/>
+      <c r="CM7" s="61"/>
+      <c r="CN7" s="61"/>
+      <c r="CO7" s="61"/>
+      <c r="CP7" s="61"/>
+      <c r="CQ7" s="61"/>
+      <c r="CR7" s="61"/>
+      <c r="CS7" s="61"/>
+      <c r="CT7" s="61"/>
+      <c r="CU7" s="61"/>
+      <c r="CV7" s="61"/>
+      <c r="CW7" s="61"/>
+      <c r="CX7" s="61"/>
+      <c r="CY7" s="61"/>
+      <c r="CZ7" s="61"/>
+      <c r="DA7" s="61"/>
+      <c r="DB7" s="61"/>
+      <c r="DC7" s="61"/>
+      <c r="DD7" s="62"/>
     </row>
     <row r="8" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="65"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="65"/>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="65"/>
-      <c r="BC8" s="65"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="65"/>
-      <c r="BF8" s="65"/>
-      <c r="BG8" s="65"/>
-      <c r="BH8" s="65"/>
-      <c r="BI8" s="65"/>
-      <c r="BJ8" s="65"/>
-      <c r="BK8" s="65"/>
-      <c r="BL8" s="65"/>
-      <c r="BM8" s="65"/>
-      <c r="BN8" s="65"/>
-      <c r="BO8" s="65"/>
-      <c r="BP8" s="65"/>
-      <c r="BQ8" s="65"/>
-      <c r="BR8" s="65"/>
-      <c r="BS8" s="65"/>
-      <c r="BT8" s="65"/>
-      <c r="BU8" s="65"/>
-      <c r="BV8" s="65"/>
-      <c r="BW8" s="65"/>
-      <c r="BX8" s="65"/>
-      <c r="BY8" s="65"/>
-      <c r="BZ8" s="65"/>
-      <c r="CA8" s="65"/>
-      <c r="CB8" s="65"/>
-      <c r="CC8" s="65"/>
-      <c r="CD8" s="65"/>
-      <c r="CE8" s="65"/>
-      <c r="CF8" s="65"/>
-      <c r="CG8" s="65"/>
-      <c r="CH8" s="65"/>
-      <c r="CI8" s="65"/>
-      <c r="CJ8" s="65"/>
-      <c r="CK8" s="65"/>
-      <c r="CL8" s="65"/>
-      <c r="CM8" s="65"/>
-      <c r="CN8" s="65"/>
-      <c r="CO8" s="65"/>
-      <c r="CP8" s="65"/>
-      <c r="CQ8" s="65"/>
-      <c r="CR8" s="65"/>
-      <c r="CS8" s="65"/>
-      <c r="CT8" s="65"/>
-      <c r="CU8" s="65"/>
-      <c r="CV8" s="65"/>
-      <c r="CW8" s="65"/>
-      <c r="CX8" s="65"/>
-      <c r="CY8" s="65"/>
-      <c r="CZ8" s="65"/>
-      <c r="DA8" s="65"/>
-      <c r="DB8" s="65"/>
-      <c r="DC8" s="65"/>
-      <c r="DD8" s="66"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="64"/>
+      <c r="AZ8" s="64"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="64"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="64"/>
+      <c r="BG8" s="64"/>
+      <c r="BH8" s="64"/>
+      <c r="BI8" s="64"/>
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="64"/>
+      <c r="BL8" s="64"/>
+      <c r="BM8" s="64"/>
+      <c r="BN8" s="64"/>
+      <c r="BO8" s="64"/>
+      <c r="BP8" s="64"/>
+      <c r="BQ8" s="64"/>
+      <c r="BR8" s="64"/>
+      <c r="BS8" s="64"/>
+      <c r="BT8" s="64"/>
+      <c r="BU8" s="64"/>
+      <c r="BV8" s="64"/>
+      <c r="BW8" s="64"/>
+      <c r="BX8" s="64"/>
+      <c r="BY8" s="64"/>
+      <c r="BZ8" s="64"/>
+      <c r="CA8" s="64"/>
+      <c r="CB8" s="64"/>
+      <c r="CC8" s="64"/>
+      <c r="CD8" s="64"/>
+      <c r="CE8" s="64"/>
+      <c r="CF8" s="64"/>
+      <c r="CG8" s="64"/>
+      <c r="CH8" s="64"/>
+      <c r="CI8" s="64"/>
+      <c r="CJ8" s="64"/>
+      <c r="CK8" s="64"/>
+      <c r="CL8" s="64"/>
+      <c r="CM8" s="64"/>
+      <c r="CN8" s="64"/>
+      <c r="CO8" s="64"/>
+      <c r="CP8" s="64"/>
+      <c r="CQ8" s="64"/>
+      <c r="CR8" s="64"/>
+      <c r="CS8" s="64"/>
+      <c r="CT8" s="64"/>
+      <c r="CU8" s="64"/>
+      <c r="CV8" s="64"/>
+      <c r="CW8" s="64"/>
+      <c r="CX8" s="64"/>
+      <c r="CY8" s="64"/>
+      <c r="CZ8" s="64"/>
+      <c r="DA8" s="64"/>
+      <c r="DB8" s="64"/>
+      <c r="DC8" s="64"/>
+      <c r="DD8" s="65"/>
     </row>
     <row r="9" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="43"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="43"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="43"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="43"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="43"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="43"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="43"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="2:108" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="43"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="43"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="43"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="43"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="43"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="43"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="43"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="43"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="43"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="43"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="43"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="43"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="43"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="43"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="43"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="43"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="43"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="43"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="43"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="43"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="43"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="43"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="42"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="43"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="42"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="43"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="42"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="43"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="43"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="42"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="43"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="42"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="43"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="42"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="43"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="42"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="43"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="42"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="43"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="42"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="43"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="42"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="43"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="42"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="43"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="42"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="43"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="42"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="43"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="43"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="43"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="42"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="43"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="42"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="43"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="42"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="43"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="42"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="43"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="42"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="lPeAwG9JnC9fcXPK4eOEkiGG0wdy61D4vfwA0x9TjACwr2DCCcFoXH1NNRmVS3KxIyAm0avMAoQlR6bf0hTfjA==" saltValue="h83zh/kxXfEOkBm4e2NR6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/form_reporting_templates/Form-3AA-update.xlsx
+++ b/form_reporting_templates/Form-3AA-update.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232AFDFD-D389-4D4F-B327-6E971ED7F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C545170-95E8-4862-958E-B8CAEA15116B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
-    <t>Focal point</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Fishery</t>
   </si>
   <si>
-    <t>aFOB</t>
-  </si>
-  <si>
     <t>Type of fate</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>Main elements</t>
+  </si>
+  <si>
+    <t>Liaision officer</t>
+  </si>
+  <si>
+    <t>AFOB</t>
   </si>
 </sst>
 </file>
@@ -155,9 +155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000000000"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -713,7 +713,7 @@
   <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -730,22 +730,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -753,7 +753,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -782,7 +782,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -927,6 +927,10 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1001,10 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1350,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1366,39 +1366,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
+      <c r="B2" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="36"/>
     </row>
@@ -1414,7 +1414,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="20"/>
       <c r="C6" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -1433,26 +1433,26 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
-      <c r="C8" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="81"/>
+      <c r="C8" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="82"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="81"/>
+      <c r="F8" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="82"/>
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="23"/>
       <c r="F9" s="30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="19"/>
@@ -1460,12 +1460,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="19"/>
@@ -1482,9 +1482,9 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="102"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="78"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -1493,9 +1493,9 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="102"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="78"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -1522,7 +1522,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
       <c r="C16" s="27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -1542,12 +1542,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="23"/>
       <c r="F18" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="19"/>
@@ -1555,12 +1555,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="23"/>
       <c r="F19" s="69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="19"/>
@@ -1568,7 +1568,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="23"/>
@@ -1597,7 +1597,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="20"/>
       <c r="C23" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="23"/>
@@ -1617,10 +1617,10 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="20"/>
       <c r="C25" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -1648,7 +1648,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="20"/>
       <c r="C28" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
@@ -1667,11 +1667,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
       <c r="H30" s="19"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1688,7 +1688,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ev6AqTyz4d54YxLTHgn0kUg8jDIqW3JSnALjqG6B3qpnm9OcsxFqvtKr3FUTt2rxN3olduvQvRm7MlDXAUpuJg==" saltValue="lUSibiF8hNFJzk8fmW6Ayw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zD/Xy2W/TJ8OkmcvoncCXfD+4UlfdwMLHTADsWuaRnEhK0kcJEf5HzJIsfY/ARvMWoCWNzIbQf8kXu6iDNsYxg==" saltValue="vYYio3icDCnulgvs2fa6/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1715,11 +1715,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="B1:DD57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,14 +1847,14 @@
       <c r="DD1"/>
     </row>
     <row r="2" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="B2" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
@@ -1958,129 +1958,129 @@
       <c r="DD2" s="50"/>
     </row>
     <row r="3" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="51"/>
-      <c r="I3" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="89"/>
-      <c r="AO3" s="89"/>
-      <c r="AP3" s="89"/>
-      <c r="AQ3" s="89"/>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="89"/>
-      <c r="AU3" s="89"/>
-      <c r="AV3" s="89"/>
-      <c r="AW3" s="89"/>
-      <c r="AX3" s="89"/>
-      <c r="AY3" s="89"/>
-      <c r="AZ3" s="89"/>
-      <c r="BA3" s="89"/>
-      <c r="BB3" s="89"/>
-      <c r="BC3" s="89"/>
-      <c r="BD3" s="89"/>
-      <c r="BE3" s="89"/>
-      <c r="BF3" s="89"/>
-      <c r="BG3" s="89"/>
-      <c r="BH3" s="89"/>
-      <c r="BI3" s="89"/>
-      <c r="BJ3" s="89"/>
-      <c r="BK3" s="89"/>
-      <c r="BL3" s="89"/>
-      <c r="BM3" s="89"/>
-      <c r="BN3" s="89"/>
-      <c r="BO3" s="89"/>
-      <c r="BP3" s="89"/>
-      <c r="BQ3" s="89"/>
-      <c r="BR3" s="89"/>
-      <c r="BS3" s="89"/>
-      <c r="BT3" s="89"/>
-      <c r="BU3" s="89"/>
-      <c r="BV3" s="89"/>
-      <c r="BW3" s="89"/>
-      <c r="BX3" s="89"/>
-      <c r="BY3" s="89"/>
-      <c r="BZ3" s="89"/>
-      <c r="CA3" s="89"/>
-      <c r="CB3" s="89"/>
-      <c r="CC3" s="89"/>
-      <c r="CD3" s="89"/>
-      <c r="CE3" s="89"/>
-      <c r="CF3" s="89"/>
-      <c r="CG3" s="89"/>
-      <c r="CH3" s="89"/>
-      <c r="CI3" s="89"/>
-      <c r="CJ3" s="89"/>
-      <c r="CK3" s="89"/>
-      <c r="CL3" s="89"/>
-      <c r="CM3" s="89"/>
-      <c r="CN3" s="89"/>
-      <c r="CO3" s="89"/>
-      <c r="CP3" s="89"/>
-      <c r="CQ3" s="89"/>
-      <c r="CR3" s="89"/>
-      <c r="CS3" s="89"/>
-      <c r="CT3" s="89"/>
-      <c r="CU3" s="89"/>
-      <c r="CV3" s="89"/>
-      <c r="CW3" s="89"/>
-      <c r="CX3" s="89"/>
-      <c r="CY3" s="89"/>
-      <c r="CZ3" s="89"/>
-      <c r="DA3" s="89"/>
-      <c r="DB3" s="89"/>
-      <c r="DC3" s="89"/>
-      <c r="DD3" s="90"/>
+      <c r="I3" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="90"/>
+      <c r="BK3" s="90"/>
+      <c r="BL3" s="90"/>
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="90"/>
+      <c r="BO3" s="90"/>
+      <c r="BP3" s="90"/>
+      <c r="BQ3" s="90"/>
+      <c r="BR3" s="90"/>
+      <c r="BS3" s="90"/>
+      <c r="BT3" s="90"/>
+      <c r="BU3" s="90"/>
+      <c r="BV3" s="90"/>
+      <c r="BW3" s="90"/>
+      <c r="BX3" s="90"/>
+      <c r="BY3" s="90"/>
+      <c r="BZ3" s="90"/>
+      <c r="CA3" s="90"/>
+      <c r="CB3" s="90"/>
+      <c r="CC3" s="90"/>
+      <c r="CD3" s="90"/>
+      <c r="CE3" s="90"/>
+      <c r="CF3" s="90"/>
+      <c r="CG3" s="90"/>
+      <c r="CH3" s="90"/>
+      <c r="CI3" s="90"/>
+      <c r="CJ3" s="90"/>
+      <c r="CK3" s="90"/>
+      <c r="CL3" s="90"/>
+      <c r="CM3" s="90"/>
+      <c r="CN3" s="90"/>
+      <c r="CO3" s="90"/>
+      <c r="CP3" s="90"/>
+      <c r="CQ3" s="90"/>
+      <c r="CR3" s="90"/>
+      <c r="CS3" s="90"/>
+      <c r="CT3" s="90"/>
+      <c r="CU3" s="90"/>
+      <c r="CV3" s="90"/>
+      <c r="CW3" s="90"/>
+      <c r="CX3" s="90"/>
+      <c r="CY3" s="90"/>
+      <c r="CZ3" s="90"/>
+      <c r="DA3" s="90"/>
+      <c r="DB3" s="90"/>
+      <c r="DC3" s="90"/>
+      <c r="DD3" s="91"/>
     </row>
     <row r="4" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="54"/>
       <c r="J4" s="55"/>
@@ -2184,14 +2184,14 @@
       <c r="DD4" s="56"/>
     </row>
     <row r="5" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="57"/>
       <c r="J5" s="58"/>
@@ -2295,14 +2295,14 @@
       <c r="DD5" s="59"/>
     </row>
     <row r="6" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="57"/>
       <c r="J6" s="58"/>
@@ -2407,25 +2407,25 @@
     </row>
     <row r="7" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="E7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="43" t="s">
+      <c r="F7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="G7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="H7" s="73" t="s">
         <v>20</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>21</v>
       </c>
       <c r="I7" s="60"/>
       <c r="J7" s="61"/>
@@ -3030,7 +3030,7 @@
       <c r="G57" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lPeAwG9JnC9fcXPK4eOEkiGG0wdy61D4vfwA0x9TjACwr2DCCcFoXH1NNRmVS3KxIyAm0avMAoQlR6bf0hTfjA==" saltValue="h83zh/kxXfEOkBm4e2NR6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="93K1i229/TaqIrJRRK7z8snjLWUtWapydGuOILvqAAcZTyEyd/Tol8+qYzyw157Wy6BpDbstsI8vFpCQpYdqfg==" saltValue="aP+9CHvtzzFs08mzzzgsOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="I3:DD3"/>
     <mergeCell ref="B2:G3"/>

--- a/form_reporting_templates/Form-3AA-update.xlsx
+++ b/form_reporting_templates/Form-3AA-update.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data_dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C545170-95E8-4862-958E-B8CAEA15116B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA292B-67E8-48A4-9C1B-FF31C6F59779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dV4x4UN/0VvyFBtyDoIunEcfcYZ4v5uYvk1jvD8vzzLvThv6/Y3drfR5cofF0NFHWy380GJVRhDwCQZMDGpoHQ==" workbookSaltValue="zVm6vMVUmkQ3Bwhy95qLKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -710,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -902,14 +902,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -979,32 +971,36 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1350,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1366,24 +1362,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
@@ -1433,15 +1429,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="82"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1484,7 +1480,7 @@
       <c r="C12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="78"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -1495,7 +1491,7 @@
       <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="78"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -1619,7 +1615,7 @@
       <c r="C25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="73" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="23"/>
@@ -1667,11 +1663,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="19"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1688,7 +1684,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zD/Xy2W/TJ8OkmcvoncCXfD+4UlfdwMLHTADsWuaRnEhK0kcJEf5HzJIsfY/ARvMWoCWNzIbQf8kXu6iDNsYxg==" saltValue="vYYio3icDCnulgvs2fa6/g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1utTvC0QndJs5VdBKhnS8EGRBVWotE6yulPG0d5NzoplEt/KHV4kBauYaes7PNXqJf1sUPB88hTDY8CavjWmvg==" saltValue="upbsphptGKB7y1vE4S9uUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1715,11 +1711,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="B1:DD57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,14 +1843,14 @@
       <c r="DD1"/>
     </row>
     <row r="2" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
@@ -1958,128 +1954,128 @@
       <c r="DD2" s="50"/>
     </row>
     <row r="3" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="51"/>
-      <c r="I3" s="89" t="s">
+      <c r="I3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="90"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="90"/>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="90"/>
-      <c r="BC3" s="90"/>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="90"/>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BI3" s="90"/>
-      <c r="BJ3" s="90"/>
-      <c r="BK3" s="90"/>
-      <c r="BL3" s="90"/>
-      <c r="BM3" s="90"/>
-      <c r="BN3" s="90"/>
-      <c r="BO3" s="90"/>
-      <c r="BP3" s="90"/>
-      <c r="BQ3" s="90"/>
-      <c r="BR3" s="90"/>
-      <c r="BS3" s="90"/>
-      <c r="BT3" s="90"/>
-      <c r="BU3" s="90"/>
-      <c r="BV3" s="90"/>
-      <c r="BW3" s="90"/>
-      <c r="BX3" s="90"/>
-      <c r="BY3" s="90"/>
-      <c r="BZ3" s="90"/>
-      <c r="CA3" s="90"/>
-      <c r="CB3" s="90"/>
-      <c r="CC3" s="90"/>
-      <c r="CD3" s="90"/>
-      <c r="CE3" s="90"/>
-      <c r="CF3" s="90"/>
-      <c r="CG3" s="90"/>
-      <c r="CH3" s="90"/>
-      <c r="CI3" s="90"/>
-      <c r="CJ3" s="90"/>
-      <c r="CK3" s="90"/>
-      <c r="CL3" s="90"/>
-      <c r="CM3" s="90"/>
-      <c r="CN3" s="90"/>
-      <c r="CO3" s="90"/>
-      <c r="CP3" s="90"/>
-      <c r="CQ3" s="90"/>
-      <c r="CR3" s="90"/>
-      <c r="CS3" s="90"/>
-      <c r="CT3" s="90"/>
-      <c r="CU3" s="90"/>
-      <c r="CV3" s="90"/>
-      <c r="CW3" s="90"/>
-      <c r="CX3" s="90"/>
-      <c r="CY3" s="90"/>
-      <c r="CZ3" s="90"/>
-      <c r="DA3" s="90"/>
-      <c r="DB3" s="90"/>
-      <c r="DC3" s="90"/>
-      <c r="DD3" s="91"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="88"/>
+      <c r="AP3" s="88"/>
+      <c r="AQ3" s="88"/>
+      <c r="AR3" s="88"/>
+      <c r="AS3" s="88"/>
+      <c r="AT3" s="88"/>
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="88"/>
+      <c r="AX3" s="88"/>
+      <c r="AY3" s="88"/>
+      <c r="AZ3" s="88"/>
+      <c r="BA3" s="88"/>
+      <c r="BB3" s="88"/>
+      <c r="BC3" s="88"/>
+      <c r="BD3" s="88"/>
+      <c r="BE3" s="88"/>
+      <c r="BF3" s="88"/>
+      <c r="BG3" s="88"/>
+      <c r="BH3" s="88"/>
+      <c r="BI3" s="88"/>
+      <c r="BJ3" s="88"/>
+      <c r="BK3" s="88"/>
+      <c r="BL3" s="88"/>
+      <c r="BM3" s="88"/>
+      <c r="BN3" s="88"/>
+      <c r="BO3" s="88"/>
+      <c r="BP3" s="88"/>
+      <c r="BQ3" s="88"/>
+      <c r="BR3" s="88"/>
+      <c r="BS3" s="88"/>
+      <c r="BT3" s="88"/>
+      <c r="BU3" s="88"/>
+      <c r="BV3" s="88"/>
+      <c r="BW3" s="88"/>
+      <c r="BX3" s="88"/>
+      <c r="BY3" s="88"/>
+      <c r="BZ3" s="88"/>
+      <c r="CA3" s="88"/>
+      <c r="CB3" s="88"/>
+      <c r="CC3" s="88"/>
+      <c r="CD3" s="88"/>
+      <c r="CE3" s="88"/>
+      <c r="CF3" s="88"/>
+      <c r="CG3" s="88"/>
+      <c r="CH3" s="88"/>
+      <c r="CI3" s="88"/>
+      <c r="CJ3" s="88"/>
+      <c r="CK3" s="88"/>
+      <c r="CL3" s="88"/>
+      <c r="CM3" s="88"/>
+      <c r="CN3" s="88"/>
+      <c r="CO3" s="88"/>
+      <c r="CP3" s="88"/>
+      <c r="CQ3" s="88"/>
+      <c r="CR3" s="88"/>
+      <c r="CS3" s="88"/>
+      <c r="CT3" s="88"/>
+      <c r="CU3" s="88"/>
+      <c r="CV3" s="88"/>
+      <c r="CW3" s="88"/>
+      <c r="CX3" s="88"/>
+      <c r="CY3" s="88"/>
+      <c r="CZ3" s="88"/>
+      <c r="DA3" s="88"/>
+      <c r="DB3" s="88"/>
+      <c r="DC3" s="88"/>
+      <c r="DD3" s="89"/>
     </row>
     <row r="4" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="94" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="71" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="92" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="54"/>
@@ -2184,13 +2180,13 @@
       <c r="DD4" s="56"/>
     </row>
     <row r="5" spans="2:108" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="72" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="70" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="57"/>
@@ -2295,12 +2291,12 @@
       <c r="DD5" s="59"/>
     </row>
     <row r="6" spans="2:108" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="70" t="s">
         <v>23</v>
       </c>
@@ -2409,22 +2405,22 @@
       <c r="B7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="75" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="72" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="71" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="60"/>
@@ -3030,7 +3026,7 @@
       <c r="G57" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="93K1i229/TaqIrJRRK7z8snjLWUtWapydGuOILvqAAcZTyEyd/Tol8+qYzyw157Wy6BpDbstsI8vFpCQpYdqfg==" saltValue="aP+9CHvtzzFs08mzzzgsOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QXhYkRDPxeibrfthDRfQSCQ07D1Og967VKoSTNEqkRdxBq0KPVDHuzx2k4mzn6X4QjRu1Af0yu0BY03R6AhZ0A==" saltValue="xsLKJgJ8PCXC1PgoeapP2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="I3:DD3"/>
     <mergeCell ref="B2:G3"/>
